--- a/doc/Encoder/encoder2.xlsx
+++ b/doc/Encoder/encoder2.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUMR\doc\Encoder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
+    <workbookView minimized="1" xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Data" sheetId="1" r:id="rId1"/>
     <sheet name="Simple Data with Plots" sheetId="4" r:id="rId2"/>
     <sheet name="Interactive Bar Graph" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="138">
   <si>
     <t>Move this sheet to 1st tab position to accept data</t>
   </si>
@@ -437,7 +442,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -670,14 +675,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -689,7 +697,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -752,6 +759,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A41D-4111-9D9C-4E90BB5D9CC2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -799,7 +811,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="171972096"/>
@@ -854,7 +866,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="139058560"/>
@@ -911,7 +923,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -944,7 +956,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -956,9 +968,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1055,6 +1067,11 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-998C-4F04-84B8-74494139D9A1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -1074,6 +1091,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-998C-4F04-84B8-74494139D9A1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1120,7 +1142,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="139029888"/>
@@ -1177,7 +1199,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="139028352"/>
@@ -1234,7 +1256,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1267,7 +1289,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1727,8 +1749,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J1370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1323" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A1336" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3521,6 +3543,46 @@
         <v>0</v>
       </c>
       <c r="F89" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="16">
+        <v>0</v>
+      </c>
+      <c r="C90" s="17">
+        <v>0</v>
+      </c>
+      <c r="D90" s="17">
+        <v>0</v>
+      </c>
+      <c r="E90" s="17">
+        <v>0</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="16">
+        <v>0</v>
+      </c>
+      <c r="C91" s="17">
+        <v>0</v>
+      </c>
+      <c r="D91" s="17">
+        <v>0</v>
+      </c>
+      <c r="E91" s="17">
+        <v>0</v>
+      </c>
+      <c r="F91" s="17">
         <v>0</v>
       </c>
     </row>
